--- a/truck/Table/Local.xlsx
+++ b/truck/Table/Local.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CBE720-4A13-466E-861B-9FCF246DBD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E7B6FF-6B6D-4842-95D3-3651904E06DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
-    <sheet name="#Local" sheetId="1" r:id="rId1"/>
+    <sheet name="Local" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
